--- a/Excel Dataframes, EDA and Predictive Modelling/LaLiga_understat.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/LaLiga_understat.xlsx
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4844,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="n">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97" t="n">
         <v>0</v>
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7724,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
         <v>0</v>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117" t="n">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" t="n">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -9596,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9956,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136" t="n">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10820,7 +10820,7 @@
         <v>1</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147" t="n">
         <v>0</v>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148" t="n">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -11468,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T153" t="n">
         <v>0</v>
@@ -11540,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" t="n">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T156" t="n">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159" t="n">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160" t="n">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162" t="n">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -12332,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T165" t="n">
         <v>0</v>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="T166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T167" t="n">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -12620,7 +12620,7 @@
         <v>1</v>
       </c>
       <c r="S169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T169" t="n">
         <v>0</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="T170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T171" t="n">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="T174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T176" t="n">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -13268,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T178" t="n">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="S180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T180" t="n">
         <v>0</v>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -13628,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="S183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T183" t="n">
         <v>0</v>
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T184" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T189" t="n">
         <v>0</v>
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
         <v>0</v>
@@ -14207,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -14276,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="S192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T192" t="n">
         <v>0</v>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -14420,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="S194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T194" t="n">
         <v>0</v>
@@ -14495,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="T195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -14564,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="S196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -14924,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="S201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T201" t="n">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T205" t="n">
         <v>0</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T206" t="n">
         <v>0</v>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="T207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="T208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -15500,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="S209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T209" t="n">
         <v>0</v>
@@ -15572,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="S210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210" t="n">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="T211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="S212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T212" t="n">
         <v>0</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -15860,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T214" t="n">
         <v>0</v>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -16007,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T217" t="n">
         <v>0</v>
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T219" t="n">
         <v>0</v>
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="S222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T222" t="n">
         <v>0</v>
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="T223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
       <c r="S224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T224" t="n">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="T225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="T226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -16796,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T227" t="n">
         <v>0</v>
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="S228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T228" t="n">
         <v>0</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T232" t="n">
         <v>0</v>
@@ -17231,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="T233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="T234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T235" t="n">
         <v>0</v>
@@ -17444,7 +17444,7 @@
         <v>1</v>
       </c>
       <c r="S236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T236" t="n">
         <v>0</v>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="T237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="T241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244" t="n">
         <v>0</v>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T246" t="n">
         <v>0</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -18311,7 +18311,7 @@
         <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T249" t="n">
         <v>0</v>
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T250" t="n">
         <v>0</v>
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="S252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T252" t="n">
         <v>0</v>
@@ -18671,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="T253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -18743,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -18812,7 +18812,7 @@
         <v>1</v>
       </c>
       <c r="S255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T255" t="n">
         <v>0</v>
@@ -18884,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="S256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T256" t="n">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -19028,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="S258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="T260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T261" t="n">
         <v>0</v>
@@ -19319,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="T262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -19388,7 +19388,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T263" t="n">
         <v>0</v>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T264" t="n">
         <v>0</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="T266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -19676,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T267" t="n">
         <v>0</v>
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="T268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T269" t="n">
         <v>0</v>
@@ -19895,7 +19895,7 @@
         <v>0</v>
       </c>
       <c r="T270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="S271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T271" t="n">
         <v>0</v>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T272" t="n">
         <v>0</v>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="T273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -20183,7 +20183,7 @@
         <v>0</v>
       </c>
       <c r="T274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -20252,7 +20252,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T275" t="n">
         <v>0</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="T276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T277" t="n">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T279" t="n">
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="S280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T280" t="n">
         <v>0</v>
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="T281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="T284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
         <v>0</v>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="S286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T286" t="n">
         <v>0</v>
@@ -21119,7 +21119,7 @@
         <v>0</v>
       </c>
       <c r="T287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="T288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -21260,7 +21260,7 @@
         <v>1</v>
       </c>
       <c r="S289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T289" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T290" t="n">
         <v>0</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="T291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -21479,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="T292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -21548,7 +21548,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T293" t="n">
         <v>0</v>
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="S294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T294" t="n">
         <v>0</v>
@@ -21695,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T296" t="n">
         <v>0</v>
@@ -21839,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="T297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="S298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T298" t="n">
         <v>0</v>
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T300" t="n">
         <v>0</v>
@@ -22127,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -22340,7 +22340,7 @@
         <v>1</v>
       </c>
       <c r="S304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T304" t="n">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="T305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T307" t="n">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="S308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T308" t="n">
         <v>0</v>
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -22772,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T310" t="n">
         <v>0</v>
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="T311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T312" t="n">
         <v>0</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="T313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="S314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T314" t="n">
         <v>0</v>
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="T315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -23204,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T316" t="n">
         <v>0</v>
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="T317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="T318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -23420,7 +23420,7 @@
         <v>0</v>
       </c>
       <c r="S319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T319" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="T320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -23564,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T321" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="S322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T322" t="n">
         <v>0</v>
@@ -23711,7 +23711,7 @@
         <v>0</v>
       </c>
       <c r="T323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T324" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="T325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -23924,7 +23924,7 @@
         <v>1</v>
       </c>
       <c r="S326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T326" t="n">
         <v>0</v>
@@ -23999,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="T327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -24068,7 +24068,7 @@
         <v>1</v>
       </c>
       <c r="S328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
         <v>0</v>
@@ -24143,7 +24143,7 @@
         <v>0</v>
       </c>
       <c r="T329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="T330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -24284,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T331" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="T332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -24428,7 +24428,7 @@
         <v>1</v>
       </c>
       <c r="S333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T333" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="S334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T334" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="T336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="S337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T337" t="n">
         <v>0</v>
@@ -24791,7 +24791,7 @@
         <v>0</v>
       </c>
       <c r="T338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -24860,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T339" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T341" t="n">
         <v>0</v>
@@ -25079,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -25148,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T343" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>1</v>
       </c>
       <c r="S344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T344" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="T345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -25364,7 +25364,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T346" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="T347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -25508,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="S348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T348" t="n">
         <v>0</v>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="T349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -25655,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="T350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T351" t="n">
         <v>0</v>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T352" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="T353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -25943,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T355" t="n">
         <v>0</v>
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
       <c r="T356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -26156,7 +26156,7 @@
         <v>1</v>
       </c>
       <c r="S357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T357" t="n">
         <v>0</v>
@@ -26228,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="S358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T358" t="n">
         <v>0</v>
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="T359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T360" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="T361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -26519,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="T362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -26588,7 +26588,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T363" t="n">
         <v>0</v>
@@ -26660,7 +26660,7 @@
         <v>1</v>
       </c>
       <c r="S364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T364" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         <v>0</v>
       </c>
       <c r="T365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="T366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -26876,7 +26876,7 @@
         <v>1</v>
       </c>
       <c r="S367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T367" t="n">
         <v>0</v>
@@ -26951,7 +26951,7 @@
         <v>0</v>
       </c>
       <c r="T368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -27020,7 +27020,7 @@
         <v>1</v>
       </c>
       <c r="S369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T369" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>1</v>
       </c>
       <c r="S372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T372" t="n">
         <v>0</v>
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="T373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -27380,7 +27380,7 @@
         <v>1</v>
       </c>
       <c r="S374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T374" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         <v>0</v>
       </c>
       <c r="T375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -27527,7 +27527,7 @@
         <v>0</v>
       </c>
       <c r="T376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T377" t="n">
         <v>0</v>
@@ -27668,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T378" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="T379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -27812,7 +27812,7 @@
         <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T380" t="n">
         <v>0</v>
@@ -27887,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="T381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -27956,7 +27956,7 @@
         <v>1</v>
       </c>
       <c r="S382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T382" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="T383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="T384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -28172,7 +28172,7 @@
         <v>1</v>
       </c>
       <c r="S385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T385" t="n">
         <v>0</v>
@@ -28244,7 +28244,7 @@
         <v>0</v>
       </c>
       <c r="S386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T386" t="n">
         <v>0</v>
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="T387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -28391,7 +28391,7 @@
         <v>0</v>
       </c>
       <c r="T388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="S389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T389" t="n">
         <v>0</v>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T390" t="n">
         <v>0</v>
@@ -28607,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="T391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="T392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -28748,7 +28748,7 @@
         <v>1</v>
       </c>
       <c r="S393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T393" t="n">
         <v>0</v>
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T394" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="T395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T398" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="T399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -29252,7 +29252,7 @@
         <v>1</v>
       </c>
       <c r="S400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T400" t="n">
         <v>0</v>
@@ -29327,7 +29327,7 @@
         <v>0</v>
       </c>
       <c r="T401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T402" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="T403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="T404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -29612,7 +29612,7 @@
         <v>1</v>
       </c>
       <c r="S405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T405" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="T406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -29756,7 +29756,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T407" t="n">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="T410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -30044,7 +30044,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T411" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="T412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T413" t="n">
         <v>0</v>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="T414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -30332,7 +30332,7 @@
         <v>0</v>
       </c>
       <c r="S415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T415" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T416" t="n">
         <v>0</v>
@@ -30479,7 +30479,7 @@
         <v>0</v>
       </c>
       <c r="T417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="T418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -30620,7 +30620,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T419" t="n">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="S420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T420" t="n">
         <v>0</v>
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="T421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -30836,7 +30836,7 @@
         <v>1</v>
       </c>
       <c r="S422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T422" t="n">
         <v>0</v>
@@ -30911,7 +30911,7 @@
         <v>0</v>
       </c>
       <c r="T423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -30983,7 +30983,7 @@
         <v>0</v>
       </c>
       <c r="T424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -31052,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T425" t="n">
         <v>0</v>
@@ -31124,7 +31124,7 @@
         <v>1</v>
       </c>
       <c r="S426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T426" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="T427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -31271,7 +31271,7 @@
         <v>0</v>
       </c>
       <c r="T428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -31340,7 +31340,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T429" t="n">
         <v>0</v>
@@ -31415,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="T430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -31484,7 +31484,7 @@
         <v>0</v>
       </c>
       <c r="S431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T431" t="n">
         <v>0</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
       <c r="S432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T432" t="n">
         <v>0</v>
@@ -31631,7 +31631,7 @@
         <v>0</v>
       </c>
       <c r="T433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -31703,7 +31703,7 @@
         <v>0</v>
       </c>
       <c r="T434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -31772,7 +31772,7 @@
         <v>1</v>
       </c>
       <c r="S435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T435" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>1</v>
       </c>
       <c r="S436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T436" t="n">
         <v>0</v>
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -31988,7 +31988,7 @@
         <v>1</v>
       </c>
       <c r="S438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T438" t="n">
         <v>0</v>
@@ -32063,7 +32063,7 @@
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -32132,7 +32132,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T440" t="n">
         <v>0</v>
@@ -32207,7 +32207,7 @@
         <v>0</v>
       </c>
       <c r="T441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -32279,7 +32279,7 @@
         <v>0</v>
       </c>
       <c r="T442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -32348,7 +32348,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T443" t="n">
         <v>0</v>
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="T444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -32492,7 +32492,7 @@
         <v>0</v>
       </c>
       <c r="S445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T445" t="n">
         <v>0</v>
@@ -32708,7 +32708,7 @@
         <v>1</v>
       </c>
       <c r="S448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T448" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="T449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -32852,7 +32852,7 @@
         <v>1</v>
       </c>
       <c r="S450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T450" t="n">
         <v>0</v>
@@ -32927,7 +32927,7 @@
         <v>0</v>
       </c>
       <c r="T451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -32999,7 +32999,7 @@
         <v>0</v>
       </c>
       <c r="T452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -33068,7 +33068,7 @@
         <v>0</v>
       </c>
       <c r="S453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T453" t="n">
         <v>0</v>
@@ -33140,7 +33140,7 @@
         <v>1</v>
       </c>
       <c r="S454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T454" t="n">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="T455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -33284,7 +33284,7 @@
         <v>1</v>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T456" t="n">
         <v>0</v>
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -33431,7 +33431,7 @@
         <v>0</v>
       </c>
       <c r="T458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -33500,7 +33500,7 @@
         <v>0</v>
       </c>
       <c r="S459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T459" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>0</v>
       </c>
       <c r="T460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -33644,7 +33644,7 @@
         <v>1</v>
       </c>
       <c r="S461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T461" t="n">
         <v>0</v>
@@ -33716,7 +33716,7 @@
         <v>1</v>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
         <v>0</v>
@@ -33791,7 +33791,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -33863,7 +33863,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -33932,7 +33932,7 @@
         <v>1</v>
       </c>
       <c r="S465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T465" t="n">
         <v>0</v>
@@ -34007,7 +34007,7 @@
         <v>0</v>
       </c>
       <c r="T466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -34076,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="S467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T467" t="n">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>0</v>
       </c>
       <c r="T468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T469" t="n">
         <v>0</v>
@@ -34295,7 +34295,7 @@
         <v>0</v>
       </c>
       <c r="T470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -34364,7 +34364,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T471" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="S472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T472" t="n">
         <v>0</v>
@@ -34511,7 +34511,7 @@
         <v>0</v>
       </c>
       <c r="T473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -34580,7 +34580,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T474" t="n">
         <v>0</v>
@@ -34655,7 +34655,7 @@
         <v>0</v>
       </c>
       <c r="T475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -34727,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="T476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="S477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T477" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="T480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -35084,7 +35084,7 @@
         <v>1</v>
       </c>
       <c r="S481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T481" t="n">
         <v>0</v>
@@ -35156,7 +35156,7 @@
         <v>0</v>
       </c>
       <c r="S482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T482" t="n">
         <v>0</v>
@@ -35231,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="T483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -35444,7 +35444,7 @@
         <v>1</v>
       </c>
       <c r="S486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T486" t="n">
         <v>0</v>
@@ -35519,7 +35519,7 @@
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -35588,7 +35588,7 @@
         <v>1</v>
       </c>
       <c r="S488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T488" t="n">
         <v>0</v>
@@ -35663,7 +35663,7 @@
         <v>0</v>
       </c>
       <c r="T489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="T490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -35804,7 +35804,7 @@
         <v>1</v>
       </c>
       <c r="S491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T491" t="n">
         <v>0</v>
@@ -35876,7 +35876,7 @@
         <v>0</v>
       </c>
       <c r="S492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T492" t="n">
         <v>0</v>
@@ -35951,7 +35951,7 @@
         <v>0</v>
       </c>
       <c r="T493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -36020,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T494" t="n">
         <v>0</v>
@@ -36095,7 +36095,7 @@
         <v>0</v>
       </c>
       <c r="T495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -36164,7 +36164,7 @@
         <v>1</v>
       </c>
       <c r="S496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T496" t="n">
         <v>0</v>
@@ -36239,7 +36239,7 @@
         <v>0</v>
       </c>
       <c r="T497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -36311,7 +36311,7 @@
         <v>0</v>
       </c>
       <c r="T498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -36380,7 +36380,7 @@
         <v>1</v>
       </c>
       <c r="S499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T499" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T500" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="T501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -36596,7 +36596,7 @@
         <v>1</v>
       </c>
       <c r="S502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T502" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="T503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -36956,7 +36956,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
         <v>0</v>
@@ -37031,7 +37031,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -37100,7 +37100,7 @@
         <v>1</v>
       </c>
       <c r="S509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T509" t="n">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -37244,7 +37244,7 @@
         <v>1</v>
       </c>
       <c r="S511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T511" t="n">
         <v>0</v>
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T512" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -37460,7 +37460,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T514" t="n">
         <v>0</v>
@@ -37535,7 +37535,7 @@
         <v>0</v>
       </c>
       <c r="T515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -37676,7 +37676,7 @@
         <v>0</v>
       </c>
       <c r="S517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T517" t="n">
         <v>0</v>
@@ -37751,7 +37751,7 @@
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -37820,7 +37820,7 @@
         <v>1</v>
       </c>
       <c r="S519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T519" t="n">
         <v>0</v>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T520" t="n">
         <v>0</v>
@@ -37967,7 +37967,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -38036,7 +38036,7 @@
         <v>1</v>
       </c>
       <c r="S522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T522" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -38180,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T524" t="n">
         <v>0</v>
@@ -38255,7 +38255,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -38324,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T526" t="n">
         <v>0</v>
@@ -38399,7 +38399,7 @@
         <v>0</v>
       </c>
       <c r="T527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -38471,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="T528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -38540,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T529" t="n">
         <v>0</v>
@@ -38615,7 +38615,7 @@
         <v>0</v>
       </c>
       <c r="T530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -38684,7 +38684,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T531" t="n">
         <v>0</v>
@@ -38900,7 +38900,7 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T534" t="n">
         <v>0</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="T535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -39044,7 +39044,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T536" t="n">
         <v>0</v>
@@ -39119,7 +39119,7 @@
         <v>0</v>
       </c>
       <c r="T537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -39191,7 +39191,7 @@
         <v>0</v>
       </c>
       <c r="T538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T539" t="n">
         <v>0</v>
@@ -39332,7 +39332,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T540" t="n">
         <v>0</v>
@@ -39407,7 +39407,7 @@
         <v>0</v>
       </c>
       <c r="T541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -39476,7 +39476,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T542" t="n">
         <v>0</v>
@@ -39551,7 +39551,7 @@
         <v>0</v>
       </c>
       <c r="T543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -39620,7 +39620,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T544" t="n">
         <v>0</v>
@@ -39695,7 +39695,7 @@
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -39908,7 +39908,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T548" t="n">
         <v>0</v>
@@ -39983,7 +39983,7 @@
         <v>0</v>
       </c>
       <c r="T549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -40052,7 +40052,7 @@
         <v>1</v>
       </c>
       <c r="S550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T550" t="n">
         <v>0</v>
@@ -40127,7 +40127,7 @@
         <v>0</v>
       </c>
       <c r="T551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -40199,7 +40199,7 @@
         <v>0</v>
       </c>
       <c r="T552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -40268,7 +40268,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T553" t="n">
         <v>0</v>
@@ -40340,7 +40340,7 @@
         <v>1</v>
       </c>
       <c r="S554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T554" t="n">
         <v>0</v>
@@ -40415,7 +40415,7 @@
         <v>0</v>
       </c>
       <c r="T555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -40484,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T556" t="n">
         <v>0</v>
@@ -40559,7 +40559,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -40631,7 +40631,7 @@
         <v>0</v>
       </c>
       <c r="T558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -40700,7 +40700,7 @@
         <v>1</v>
       </c>
       <c r="S559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T559" t="n">
         <v>0</v>
@@ -40772,7 +40772,7 @@
         <v>1</v>
       </c>
       <c r="S560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T560" t="n">
         <v>0</v>
@@ -40847,7 +40847,7 @@
         <v>0</v>
       </c>
       <c r="T561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -40916,7 +40916,7 @@
         <v>0</v>
       </c>
       <c r="S562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T562" t="n">
         <v>0</v>
@@ -40991,7 +40991,7 @@
         <v>0</v>
       </c>
       <c r="T563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -41060,7 +41060,7 @@
         <v>1</v>
       </c>
       <c r="S564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T564" t="n">
         <v>0</v>
@@ -41135,7 +41135,7 @@
         <v>0</v>
       </c>
       <c r="T565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -41204,7 +41204,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T566" t="n">
         <v>0</v>
@@ -41279,7 +41279,7 @@
         <v>0</v>
       </c>
       <c r="T567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -41351,7 +41351,7 @@
         <v>0</v>
       </c>
       <c r="T568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -41420,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T569" t="n">
         <v>0</v>
@@ -41492,7 +41492,7 @@
         <v>1</v>
       </c>
       <c r="S570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T570" t="n">
         <v>0</v>
@@ -41567,7 +41567,7 @@
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -41636,7 +41636,7 @@
         <v>1</v>
       </c>
       <c r="S572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T572" t="n">
         <v>0</v>
@@ -41711,7 +41711,7 @@
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -41783,7 +41783,7 @@
         <v>0</v>
       </c>
       <c r="T574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -41852,7 +41852,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T575" t="n">
         <v>0</v>
@@ -41924,7 +41924,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T576" t="n">
         <v>0</v>
@@ -41999,7 +41999,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -42071,7 +42071,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -42140,7 +42140,7 @@
         <v>1</v>
       </c>
       <c r="S579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T579" t="n">
         <v>0</v>
@@ -42212,7 +42212,7 @@
         <v>1</v>
       </c>
       <c r="S580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T580" t="n">
         <v>0</v>
@@ -42287,7 +42287,7 @@
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -42359,7 +42359,7 @@
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -42428,7 +42428,7 @@
         <v>0</v>
       </c>
       <c r="S583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T583" t="n">
         <v>0</v>
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T584" t="n">
         <v>0</v>
@@ -42575,7 +42575,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -42644,7 +42644,7 @@
         <v>1</v>
       </c>
       <c r="S586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T586" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -42791,7 +42791,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -42860,7 +42860,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T589" t="n">
         <v>0</v>
@@ -42932,7 +42932,7 @@
         <v>0</v>
       </c>
       <c r="S590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T590" t="n">
         <v>0</v>
@@ -43007,7 +43007,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -43223,7 +43223,7 @@
         <v>0</v>
       </c>
       <c r="T594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -43292,7 +43292,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T595" t="n">
         <v>0</v>
@@ -43364,7 +43364,7 @@
         <v>1</v>
       </c>
       <c r="S596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T596" t="n">
         <v>0</v>
@@ -43439,7 +43439,7 @@
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -43508,7 +43508,7 @@
         <v>1</v>
       </c>
       <c r="S598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T598" t="n">
         <v>0</v>
@@ -43583,7 +43583,7 @@
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -43652,7 +43652,7 @@
         <v>1</v>
       </c>
       <c r="S600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T600" t="n">
         <v>0</v>
@@ -43727,7 +43727,7 @@
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -43796,7 +43796,7 @@
         <v>1</v>
       </c>
       <c r="S602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T602" t="n">
         <v>0</v>
@@ -43871,7 +43871,7 @@
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -43943,7 +43943,7 @@
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -44012,7 +44012,7 @@
         <v>0</v>
       </c>
       <c r="S605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T605" t="n">
         <v>0</v>
@@ -44084,7 +44084,7 @@
         <v>1</v>
       </c>
       <c r="S606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T606" t="n">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -44228,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T608" t="n">
         <v>0</v>
@@ -44303,7 +44303,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -44375,7 +44375,7 @@
         <v>0</v>
       </c>
       <c r="T610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -44444,7 +44444,7 @@
         <v>0</v>
       </c>
       <c r="S611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T611" t="n">
         <v>0</v>
@@ -44516,7 +44516,7 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T612" t="n">
         <v>0</v>
@@ -44591,7 +44591,7 @@
         <v>0</v>
       </c>
       <c r="T613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -44663,7 +44663,7 @@
         <v>0</v>
       </c>
       <c r="T614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -44732,7 +44732,7 @@
         <v>1</v>
       </c>
       <c r="S615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T615" t="n">
         <v>0</v>
@@ -44804,7 +44804,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T616" t="n">
         <v>0</v>
@@ -44879,7 +44879,7 @@
         <v>0</v>
       </c>
       <c r="T617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -44948,7 +44948,7 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T618" t="n">
         <v>0</v>
@@ -45023,7 +45023,7 @@
         <v>0</v>
       </c>
       <c r="T619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -45092,7 +45092,7 @@
         <v>0</v>
       </c>
       <c r="S620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T620" t="n">
         <v>0</v>
@@ -45167,7 +45167,7 @@
         <v>0</v>
       </c>
       <c r="T621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -45236,7 +45236,7 @@
         <v>1</v>
       </c>
       <c r="S622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T622" t="n">
         <v>0</v>
@@ -45311,7 +45311,7 @@
         <v>0</v>
       </c>
       <c r="T623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -45380,7 +45380,7 @@
         <v>0</v>
       </c>
       <c r="S624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T624" t="n">
         <v>0</v>
@@ -45455,7 +45455,7 @@
         <v>0</v>
       </c>
       <c r="T625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -45524,7 +45524,7 @@
         <v>0</v>
       </c>
       <c r="S626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T626" t="n">
         <v>0</v>
@@ -45599,7 +45599,7 @@
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -45668,7 +45668,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T628" t="n">
         <v>0</v>
@@ -45743,7 +45743,7 @@
         <v>0</v>
       </c>
       <c r="T629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -45815,7 +45815,7 @@
         <v>0</v>
       </c>
       <c r="T630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -45884,7 +45884,7 @@
         <v>0</v>
       </c>
       <c r="S631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T631" t="n">
         <v>0</v>
@@ -45956,7 +45956,7 @@
         <v>1</v>
       </c>
       <c r="S632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T632" t="n">
         <v>0</v>
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="T633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -46100,7 +46100,7 @@
         <v>1</v>
       </c>
       <c r="S634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T634" t="n">
         <v>0</v>
@@ -46175,7 +46175,7 @@
         <v>0</v>
       </c>
       <c r="T635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -46244,7 +46244,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T636" t="n">
         <v>0</v>
@@ -46319,7 +46319,7 @@
         <v>0</v>
       </c>
       <c r="T637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -46391,7 +46391,7 @@
         <v>0</v>
       </c>
       <c r="T638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -46460,7 +46460,7 @@
         <v>1</v>
       </c>
       <c r="S639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T639" t="n">
         <v>0</v>
@@ -46535,7 +46535,7 @@
         <v>0</v>
       </c>
       <c r="T640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -46604,7 +46604,7 @@
         <v>1</v>
       </c>
       <c r="S641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T641" t="n">
         <v>0</v>
@@ -46676,7 +46676,7 @@
         <v>0</v>
       </c>
       <c r="S642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T642" t="n">
         <v>0</v>
@@ -46751,7 +46751,7 @@
         <v>0</v>
       </c>
       <c r="T643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -46820,7 +46820,7 @@
         <v>0</v>
       </c>
       <c r="S644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T644" t="n">
         <v>0</v>
@@ -46895,7 +46895,7 @@
         <v>0</v>
       </c>
       <c r="T645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -46967,7 +46967,7 @@
         <v>0</v>
       </c>
       <c r="T646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -47036,7 +47036,7 @@
         <v>0</v>
       </c>
       <c r="S647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T647" t="n">
         <v>0</v>
@@ -47108,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="S648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T648" t="n">
         <v>0</v>
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="T649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -47255,7 +47255,7 @@
         <v>0</v>
       </c>
       <c r="T650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -47324,7 +47324,7 @@
         <v>1</v>
       </c>
       <c r="S651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T651" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         <v>1</v>
       </c>
       <c r="S652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T652" t="n">
         <v>0</v>
@@ -47471,7 +47471,7 @@
         <v>0</v>
       </c>
       <c r="T653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -47540,7 +47540,7 @@
         <v>0</v>
       </c>
       <c r="S654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T654" t="n">
         <v>0</v>
@@ -47615,7 +47615,7 @@
         <v>0</v>
       </c>
       <c r="T655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -47684,7 +47684,7 @@
         <v>1</v>
       </c>
       <c r="S656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T656" t="n">
         <v>0</v>
@@ -47759,7 +47759,7 @@
         <v>0</v>
       </c>
       <c r="T657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -47828,7 +47828,7 @@
         <v>1</v>
       </c>
       <c r="S658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T658" t="n">
         <v>0</v>
@@ -47903,7 +47903,7 @@
         <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -47975,7 +47975,7 @@
         <v>0</v>
       </c>
       <c r="T660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -48044,7 +48044,7 @@
         <v>0</v>
       </c>
       <c r="S661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T661" t="n">
         <v>0</v>
@@ -48119,7 +48119,7 @@
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -48188,7 +48188,7 @@
         <v>0</v>
       </c>
       <c r="S663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T663" t="n">
         <v>0</v>
@@ -48260,7 +48260,7 @@
         <v>0</v>
       </c>
       <c r="S664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T664" t="n">
         <v>0</v>
@@ -48335,7 +48335,7 @@
         <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -48404,7 +48404,7 @@
         <v>0</v>
       </c>
       <c r="S666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T666" t="n">
         <v>0</v>
@@ -48479,7 +48479,7 @@
         <v>0</v>
       </c>
       <c r="T667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -48551,7 +48551,7 @@
         <v>0</v>
       </c>
       <c r="T668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -48620,7 +48620,7 @@
         <v>0</v>
       </c>
       <c r="S669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T669" t="n">
         <v>0</v>
@@ -48695,7 +48695,7 @@
         <v>0</v>
       </c>
       <c r="T670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -48764,7 +48764,7 @@
         <v>1</v>
       </c>
       <c r="S671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T671" t="n">
         <v>0</v>
@@ -48836,7 +48836,7 @@
         <v>1</v>
       </c>
       <c r="S672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T672" t="n">
         <v>0</v>
@@ -48911,7 +48911,7 @@
         <v>0</v>
       </c>
       <c r="T673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -49127,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="T676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -49196,7 +49196,7 @@
         <v>0</v>
       </c>
       <c r="S677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T677" t="n">
         <v>0</v>
@@ -49271,7 +49271,7 @@
         <v>0</v>
       </c>
       <c r="T678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -49340,7 +49340,7 @@
         <v>1</v>
       </c>
       <c r="S679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T679" t="n">
         <v>0</v>
@@ -49412,7 +49412,7 @@
         <v>1</v>
       </c>
       <c r="S680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T680" t="n">
         <v>0</v>
@@ -49487,7 +49487,7 @@
         <v>0</v>
       </c>
       <c r="T681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -49559,7 +49559,7 @@
         <v>0</v>
       </c>
       <c r="T682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -49628,7 +49628,7 @@
         <v>0</v>
       </c>
       <c r="S683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T683" t="n">
         <v>0</v>
@@ -49847,7 +49847,7 @@
         <v>0</v>
       </c>
       <c r="T686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -49916,7 +49916,7 @@
         <v>0</v>
       </c>
       <c r="S687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T687" t="n">
         <v>0</v>
@@ -49988,7 +49988,7 @@
         <v>1</v>
       </c>
       <c r="S688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T688" t="n">
         <v>0</v>
@@ -50063,7 +50063,7 @@
         <v>0</v>
       </c>
       <c r="T689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -50132,7 +50132,7 @@
         <v>0</v>
       </c>
       <c r="S690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T690" t="n">
         <v>0</v>
@@ -50207,7 +50207,7 @@
         <v>0</v>
       </c>
       <c r="T691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -50276,7 +50276,7 @@
         <v>1</v>
       </c>
       <c r="S692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T692" t="n">
         <v>0</v>
@@ -50351,7 +50351,7 @@
         <v>0</v>
       </c>
       <c r="T693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="T694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -50492,7 +50492,7 @@
         <v>0</v>
       </c>
       <c r="S695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T695" t="n">
         <v>0</v>
@@ -50564,7 +50564,7 @@
         <v>0</v>
       </c>
       <c r="S696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T696" t="n">
         <v>0</v>
@@ -50639,7 +50639,7 @@
         <v>0</v>
       </c>
       <c r="T697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -50711,7 +50711,7 @@
         <v>0</v>
       </c>
       <c r="T698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -50780,7 +50780,7 @@
         <v>1</v>
       </c>
       <c r="S699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T699" t="n">
         <v>0</v>
@@ -50852,7 +50852,7 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T700" t="n">
         <v>0</v>
@@ -50927,7 +50927,7 @@
         <v>0</v>
       </c>
       <c r="T701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -50999,7 +50999,7 @@
         <v>0</v>
       </c>
       <c r="T702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -51068,7 +51068,7 @@
         <v>1</v>
       </c>
       <c r="S703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T703" t="n">
         <v>0</v>
@@ -51140,7 +51140,7 @@
         <v>0</v>
       </c>
       <c r="S704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T704" t="n">
         <v>0</v>
@@ -51215,7 +51215,7 @@
         <v>0</v>
       </c>
       <c r="T705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -51284,7 +51284,7 @@
         <v>1</v>
       </c>
       <c r="S706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T706" t="n">
         <v>0</v>
@@ -51359,7 +51359,7 @@
         <v>0</v>
       </c>
       <c r="T707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="T710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -51644,7 +51644,7 @@
         <v>0</v>
       </c>
       <c r="S711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T711" t="n">
         <v>0</v>
@@ -51719,7 +51719,7 @@
         <v>0</v>
       </c>
       <c r="T712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -51788,7 +51788,7 @@
         <v>1</v>
       </c>
       <c r="S713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T713" t="n">
         <v>0</v>
@@ -51863,7 +51863,7 @@
         <v>0</v>
       </c>
       <c r="T714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -51932,7 +51932,7 @@
         <v>1</v>
       </c>
       <c r="S715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T715" t="n">
         <v>0</v>
@@ -52004,7 +52004,7 @@
         <v>0</v>
       </c>
       <c r="S716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T716" t="n">
         <v>0</v>
@@ -52079,7 +52079,7 @@
         <v>0</v>
       </c>
       <c r="T717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -52148,7 +52148,7 @@
         <v>1</v>
       </c>
       <c r="S718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T718" t="n">
         <v>0</v>
@@ -52223,7 +52223,7 @@
         <v>0</v>
       </c>
       <c r="T719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -52292,7 +52292,7 @@
         <v>1</v>
       </c>
       <c r="S720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T720" t="n">
         <v>0</v>
@@ -52367,7 +52367,7 @@
         <v>0</v>
       </c>
       <c r="T721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -52436,7 +52436,7 @@
         <v>0</v>
       </c>
       <c r="S722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T722" t="n">
         <v>0</v>
@@ -52511,7 +52511,7 @@
         <v>0</v>
       </c>
       <c r="T723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -52583,7 +52583,7 @@
         <v>0</v>
       </c>
       <c r="T724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -52652,7 +52652,7 @@
         <v>0</v>
       </c>
       <c r="S725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T725" t="n">
         <v>0</v>
@@ -52724,7 +52724,7 @@
         <v>0</v>
       </c>
       <c r="S726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T726" t="n">
         <v>0</v>
@@ -52799,7 +52799,7 @@
         <v>0</v>
       </c>
       <c r="T727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -52871,7 +52871,7 @@
         <v>0</v>
       </c>
       <c r="T728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -52940,7 +52940,7 @@
         <v>0</v>
       </c>
       <c r="S729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T729" t="n">
         <v>0</v>
@@ -53015,7 +53015,7 @@
         <v>0</v>
       </c>
       <c r="T730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -53084,7 +53084,7 @@
         <v>0</v>
       </c>
       <c r="S731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T731" t="n">
         <v>0</v>
@@ -53156,7 +53156,7 @@
         <v>0</v>
       </c>
       <c r="S732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T732" t="n">
         <v>0</v>
@@ -53231,7 +53231,7 @@
         <v>0</v>
       </c>
       <c r="T733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -53300,7 +53300,7 @@
         <v>0</v>
       </c>
       <c r="S734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T734" t="n">
         <v>0</v>
@@ -53375,7 +53375,7 @@
         <v>0</v>
       </c>
       <c r="T735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -53447,7 +53447,7 @@
         <v>0</v>
       </c>
       <c r="T736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -53516,7 +53516,7 @@
         <v>1</v>
       </c>
       <c r="S737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T737" t="n">
         <v>0</v>
@@ -53735,7 +53735,7 @@
         <v>0</v>
       </c>
       <c r="T740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -53804,7 +53804,7 @@
         <v>0</v>
       </c>
       <c r="S741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T741" t="n">
         <v>0</v>
@@ -53879,7 +53879,7 @@
         <v>0</v>
       </c>
       <c r="T742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -53948,7 +53948,7 @@
         <v>0</v>
       </c>
       <c r="S743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T743" t="n">
         <v>0</v>
@@ -54020,7 +54020,7 @@
         <v>1</v>
       </c>
       <c r="S744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T744" t="n">
         <v>0</v>
@@ -54095,7 +54095,7 @@
         <v>0</v>
       </c>
       <c r="T745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -54164,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="S746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T746" t="n">
         <v>0</v>
@@ -54239,7 +54239,7 @@
         <v>0</v>
       </c>
       <c r="T747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -54311,7 +54311,7 @@
         <v>0</v>
       </c>
       <c r="T748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -54380,7 +54380,7 @@
         <v>1</v>
       </c>
       <c r="S749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T749" t="n">
         <v>0</v>
@@ -54452,7 +54452,7 @@
         <v>1</v>
       </c>
       <c r="S750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T750" t="n">
         <v>0</v>
@@ -54527,7 +54527,7 @@
         <v>0</v>
       </c>
       <c r="T751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -54599,7 +54599,7 @@
         <v>0</v>
       </c>
       <c r="T752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -54668,7 +54668,7 @@
         <v>1</v>
       </c>
       <c r="S753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T753" t="n">
         <v>0</v>
@@ -54884,7 +54884,7 @@
         <v>1</v>
       </c>
       <c r="S756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T756" t="n">
         <v>0</v>
@@ -54959,7 +54959,7 @@
         <v>0</v>
       </c>
       <c r="T757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -55172,7 +55172,7 @@
         <v>0</v>
       </c>
       <c r="S760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T760" t="n">
         <v>0</v>
@@ -55247,7 +55247,7 @@
         <v>0</v>
       </c>
       <c r="T761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
